--- a/Files/Excel/Subaru.xlsx
+++ b/Files/Excel/Subaru.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Área de Trabalho\autoSINP\Files\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\Desktop\AfterLifeDeath\SINP\autoSINP\Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F775E684-A2C4-45CB-ACA3-668F08063E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8052B732-312D-4F87-970C-1DF0F94F2D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,109 +20,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>serie</t>
   </si>
   <si>
-    <t>Subaru 360</t>
-  </si>
-  <si>
-    <t>Subaru Alcyone SVX</t>
-  </si>
-  <si>
-    <t>Subaru Ascent</t>
-  </si>
-  <si>
-    <t>Subaru Baja</t>
-  </si>
-  <si>
-    <t>Subaru Bighorn</t>
-  </si>
-  <si>
-    <t>Subaru BRZ</t>
-  </si>
-  <si>
-    <t>Subaru Exiga</t>
-  </si>
-  <si>
-    <t>Subaru Forester</t>
-  </si>
-  <si>
-    <t>Subaru G3X Justy</t>
-  </si>
-  <si>
-    <t>Subaru G4e</t>
-  </si>
-  <si>
-    <t>Subaru Impreza</t>
-  </si>
-  <si>
-    <t>Subaru Impreza Design Concept</t>
-  </si>
-  <si>
-    <t>Subaru Impreza WRC</t>
-  </si>
-  <si>
-    <t>Subaru Justy</t>
-  </si>
-  <si>
-    <t>Subaru Legacy</t>
-  </si>
-  <si>
-    <t>Subaru Outback</t>
-  </si>
-  <si>
-    <t>Subaru Pleo</t>
-  </si>
-  <si>
-    <t>Subaru R-2</t>
-  </si>
-  <si>
-    <t>Subaru R1</t>
-  </si>
-  <si>
-    <t>Subaru R2</t>
-  </si>
-  <si>
-    <t>Subaru Rex</t>
-  </si>
-  <si>
-    <t>Subaru Stella</t>
-  </si>
-  <si>
-    <t>Subaru Sambar</t>
-  </si>
-  <si>
-    <t>Subaru Traviq</t>
-  </si>
-  <si>
-    <t>Subaru Trezia</t>
-  </si>
-  <si>
-    <t>Subaru Tribeca</t>
-  </si>
-  <si>
-    <t>Subaru Vivio</t>
-  </si>
-  <si>
-    <t>Subaru WRX</t>
-  </si>
-  <si>
-    <t>Subaru XT</t>
-  </si>
-  <si>
-    <t>Subaru XV</t>
-  </si>
-  <si>
     <t>marca</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>Subaru</t>
+  </si>
+  <si>
+    <t>Alcyone SVX</t>
+  </si>
+  <si>
+    <t>G3X Justy</t>
+  </si>
+  <si>
+    <t>Impreza WRC</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Ascent</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Bighorn</t>
+  </si>
+  <si>
+    <t>Exiga</t>
+  </si>
+  <si>
+    <t>Forester</t>
+  </si>
+  <si>
+    <t>G4e</t>
+  </si>
+  <si>
+    <t>Impreza</t>
+  </si>
+  <si>
+    <t>Impreza Design Concept</t>
+  </si>
+  <si>
+    <t>Justy</t>
+  </si>
+  <si>
+    <t>Legacy</t>
+  </si>
+  <si>
+    <t>Outback</t>
+  </si>
+  <si>
+    <t>Pleo</t>
+  </si>
+  <si>
+    <t>Rex</t>
+  </si>
+  <si>
+    <t>Stella</t>
+  </si>
+  <si>
+    <t>Sambar</t>
+  </si>
+  <si>
+    <t>Traviq</t>
+  </si>
+  <si>
+    <t>Trezia</t>
+  </si>
+  <si>
+    <t>BRZ</t>
+  </si>
+  <si>
+    <t>Tribeca</t>
+  </si>
+  <si>
+    <t>Vivio</t>
+  </si>
+  <si>
+    <t>WRX</t>
+  </si>
+  <si>
+    <t>XT</t>
+  </si>
+  <si>
+    <t>XV</t>
+  </si>
+  <si>
+    <t>R-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +134,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -478,266 +484,360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A31" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>360</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>